--- a/Documentation/Diccionario de datos.xlsx
+++ b/Documentation/Diccionario de datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project Emprendev\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Downloads\Proyecto Emprendev SB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9ECAF-1925-4923-B27A-3193DCD2CBCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="7455" yWindow="300" windowWidth="21345" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>Tbl_usuario</t>
   </si>
@@ -41,45 +42,6 @@
     <t>id_usuario</t>
   </si>
   <si>
-    <t>nom1_usuario</t>
-  </si>
-  <si>
-    <t>nom2_usuario</t>
-  </si>
-  <si>
-    <t>apellido1_usuario</t>
-  </si>
-  <si>
-    <t>apellido2_usuario</t>
-  </si>
-  <si>
-    <t>fecha_nac_usuario</t>
-  </si>
-  <si>
-    <t>edad</t>
-  </si>
-  <si>
-    <t>cel_usuario</t>
-  </si>
-  <si>
-    <t>direc_usuario</t>
-  </si>
-  <si>
-    <t>correo_usuario</t>
-  </si>
-  <si>
-    <t>contraseña_usuario</t>
-  </si>
-  <si>
-    <t>perfil_usuario</t>
-  </si>
-  <si>
-    <t>estado_usuario</t>
-  </si>
-  <si>
-    <t>fec_creacion_usuario</t>
-  </si>
-  <si>
     <t>entero</t>
   </si>
   <si>
@@ -95,9 +57,6 @@
     <t>En este campo esta ubicado el identificador del usuario</t>
   </si>
   <si>
-    <t>En este campo el usuario digitara su edad</t>
-  </si>
-  <si>
     <t xml:space="preserve">En este campo el usuario digitara su numero de celular </t>
   </si>
   <si>
@@ -110,12 +69,6 @@
     <t xml:space="preserve">En este campo el usuario digitara su contraseña creada por el mismo </t>
   </si>
   <si>
-    <t>En este campo el usuario podra escoger si es programador o un mypime</t>
-  </si>
-  <si>
-    <t>En este campo se indicara si el usuario esta activo, ocupado, disponible entre otras</t>
-  </si>
-  <si>
     <t>En este campo se mostrara la fecha y hora exacta en la que el usuario se registro</t>
   </si>
   <si>
@@ -170,36 +123,9 @@
     <t>Tbl_usuario_devs</t>
   </si>
   <si>
-    <t>id_dev</t>
-  </si>
-  <si>
-    <t>certificacion</t>
-  </si>
-  <si>
-    <t>años_experiencia</t>
-  </si>
-  <si>
-    <t>especializacion</t>
-  </si>
-  <si>
     <t>archivo</t>
   </si>
   <si>
-    <t>En este campo se creara un identidicador para un usuario que sea desarrollador</t>
-  </si>
-  <si>
-    <t>En este campo el desarrollador que es desarrollador prodra adjuntar sus certificados</t>
-  </si>
-  <si>
-    <t>En este campo el desarrollador podra digitar sus años de experiencia</t>
-  </si>
-  <si>
-    <t>En este campo el desarrollador podra digitar en que se especializa</t>
-  </si>
-  <si>
-    <t>En este campo el desarrollador podra digitar una pequeña descripcion</t>
-  </si>
-  <si>
     <t>Tbl_usuario_mypime</t>
   </si>
   <si>
@@ -227,78 +153,9 @@
     <t>En este campo el mypime podra digitar una pequeña descripcion acerca de su negocio</t>
   </si>
   <si>
-    <t>Tbl_certificado_devs</t>
-  </si>
-  <si>
-    <t>En este campo los desarrolladores podran adjuntar sus certificaciones</t>
-  </si>
-  <si>
-    <t>En este campo el desarrollador podra digitar una pequeña descripcion de el</t>
-  </si>
-  <si>
-    <t>Tbl_negocio_mypime</t>
-  </si>
-  <si>
-    <t>nom_negocio</t>
-  </si>
-  <si>
-    <t>direc_negocio</t>
-  </si>
-  <si>
-    <t>ciudad_negocio</t>
-  </si>
-  <si>
-    <t>certificacion_negocio</t>
-  </si>
-  <si>
-    <t>descripcion_negocio</t>
-  </si>
-  <si>
-    <t>En este campo el mypime podra digitar el nombre de su negocio</t>
-  </si>
-  <si>
-    <t>En este campo el mypime podra digtar la direcion de su negocio</t>
-  </si>
-  <si>
-    <t>En este campo del mypime podra seleccionar la ciudad donde esta ubicado su negocio</t>
-  </si>
-  <si>
-    <t>En este campo el mypime podra adjuntar certficaciones de su negocio</t>
-  </si>
-  <si>
-    <t>En este campo el mypime podra digitar una pequeña descripcion de su negocio</t>
-  </si>
-  <si>
     <t>Tbl_oferta</t>
   </si>
   <si>
-    <t>id_oferta</t>
-  </si>
-  <si>
-    <t>titulo_oferta</t>
-  </si>
-  <si>
-    <t>fecha_publicacion</t>
-  </si>
-  <si>
-    <t>fecha_finalizacion</t>
-  </si>
-  <si>
-    <t>cupos_oferta</t>
-  </si>
-  <si>
-    <t>pago_oferta</t>
-  </si>
-  <si>
-    <t>etiquetas_oferta</t>
-  </si>
-  <si>
-    <t>fotos_oferta</t>
-  </si>
-  <si>
-    <t>descripcion_oferta</t>
-  </si>
-  <si>
     <t>id_estado</t>
   </si>
   <si>
@@ -323,18 +180,9 @@
     <t>En este campo el usuario digitara el pago por la oferta</t>
   </si>
   <si>
-    <t>En este campo el usuario digitara las etiquetas que corresponden a su oferta</t>
-  </si>
-  <si>
-    <t>En este campo el usuario podra adjuntar fotos de su oferta</t>
-  </si>
-  <si>
     <t>En este campo el usuario podra digitar una pequeña descripcion sobre su oferta</t>
   </si>
   <si>
-    <t>En este campo estara la conexión con la tabla de estado_oferta</t>
-  </si>
-  <si>
     <t>Tbl_estado_oferta</t>
   </si>
   <si>
@@ -392,23 +240,170 @@
     <t>En este campo se creara un identidicador para un usuario que sea mipyme</t>
   </si>
   <si>
-    <t>En este campo estara la conexión con el identificador de la tabla  usuario_dev</t>
-  </si>
-  <si>
-    <t>En este campo estara la conexión con el identificador de la tabla  usuario_mipyme</t>
-  </si>
-  <si>
-    <t>En este campo estara la conexión con la tabla de usuario_dev</t>
-  </si>
-  <si>
-    <t>En este campo estara la conexión con la tabla de usuario_mypime</t>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>secondName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>secondLastName</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>docType</t>
+  </si>
+  <si>
+    <t>En este campo el usuario seleccionara su tipo de documento</t>
+  </si>
+  <si>
+    <t>docNum</t>
+  </si>
+  <si>
+    <t>En este campo el usuario digitara su numero de documento</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>En este campo el usuario seleccionara su rol dentro del sistema (Mipyme, Desarrollador)</t>
+  </si>
+  <si>
+    <t>En este campo se indicara si el usuario esta activo o inactivo</t>
+  </si>
+  <si>
+    <t>accountSate</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>imgProfile</t>
+  </si>
+  <si>
+    <t>En este campo se guardara la imagen de perfil del usuario</t>
+  </si>
+  <si>
+    <t>profileDescription</t>
+  </si>
+  <si>
+    <t>En este campo el se guardara la descripcion del perfil profesional del desarrollador</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el nombre de la universidad de estudio del desarrollador</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el nombre de la carrera de estudio del desarrollador</t>
+  </si>
+  <si>
+    <t>careerStartDate</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador elegira la fecha en la que inicio su carrera</t>
+  </si>
+  <si>
+    <t>careerEndDate</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador elegira la fecha en la que finalizo su carrera</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador digitara el cargo que desempeño en alguna empresa</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador digitara el nombre de la empresa</t>
+  </si>
+  <si>
+    <t>chargeStartDate</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador digitara la fecha en la que inicio su cargo</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador digitara la fecha en la que finalizo su cargo</t>
+  </si>
+  <si>
+    <t>chargeEndDate</t>
+  </si>
+  <si>
+    <t>chargeDescription</t>
+  </si>
+  <si>
+    <t>En este campo el desarrollador digitara la descripcion de el cargo que desempeño</t>
+  </si>
+  <si>
+    <t>idOferta</t>
+  </si>
+  <si>
+    <t>offerTitle</t>
+  </si>
+  <si>
+    <t>publicationDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>offerQuotes</t>
+  </si>
+  <si>
+    <t>offerPayment</t>
+  </si>
+  <si>
+    <t>offerImg</t>
+  </si>
+  <si>
+    <t>En este campo el mipyme seleccionara las fotos de la oferta</t>
+  </si>
+  <si>
+    <t>offerDescription</t>
+  </si>
+  <si>
+    <t>offerState</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el estado de la oferta (activo, inactivo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +414,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,6 +519,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,11 +824,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -837,871 +843,756 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
+      <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="A72" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>99</v>
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
+      <c r="A82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A65:C65"/>
+  <mergeCells count="8">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Diccionario de datos.xlsx
+++ b/Documentation/Diccionario de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Downloads\Proyecto Emprendev SB\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZSENA\Downloads\Emprendev-SB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9ECAF-1925-4923-B27A-3193DCD2CBCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B6912-2F65-4ABD-8B6F-D1F0C1EA6135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="300" windowWidth="21345" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="125">
   <si>
     <t>Tbl_usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>id_usuario</t>
-  </si>
-  <si>
     <t>entero</t>
   </si>
   <si>
@@ -87,81 +84,21 @@
     <t>En este campo el usuario digitara su fecha de nacimineto</t>
   </si>
   <si>
-    <t>Tbl_contraseñas</t>
-  </si>
-  <si>
-    <t>id_contraseña</t>
-  </si>
-  <si>
-    <t>contraseña_actual</t>
-  </si>
-  <si>
-    <t>contraseña_antigua</t>
-  </si>
-  <si>
-    <t>fecha_actualizacion_contra</t>
-  </si>
-  <si>
-    <t>fecha actual</t>
-  </si>
-  <si>
     <t>En este campo se creara una identificacion para la contraseña</t>
   </si>
   <si>
-    <t>En este campo habra un resgistro de la contraseña actual</t>
-  </si>
-  <si>
-    <t>En este campo habra un resgistro de la contraseña antigua</t>
-  </si>
-  <si>
-    <t>En este campo estara la conexión con el identificador del usuario</t>
-  </si>
-  <si>
-    <t>En este campor habra un registro de la fecha en que se actualizo la contraseña</t>
-  </si>
-  <si>
-    <t>Tbl_usuario_devs</t>
-  </si>
-  <si>
-    <t>archivo</t>
-  </si>
-  <si>
     <t>Tbl_usuario_mypime</t>
   </si>
   <si>
-    <t>id_mypime</t>
-  </si>
-  <si>
-    <t>nom_negocio_updated</t>
-  </si>
-  <si>
-    <t>certificacion_negocio_updated</t>
-  </si>
-  <si>
-    <t>descripcion_negocio_updated</t>
-  </si>
-  <si>
     <t>En este campo estara la conexión con el identificador de la tabla  usuario</t>
   </si>
   <si>
     <t>En este campo el mypime digitara el nombre de su negocio</t>
   </si>
   <si>
-    <t>En este campo el mypime podra adjuntar certificacion de su negocio</t>
-  </si>
-  <si>
-    <t>En este campo el mypime podra digitar una pequeña descripcion acerca de su negocio</t>
-  </si>
-  <si>
     <t>Tbl_oferta</t>
   </si>
   <si>
-    <t>id_estado</t>
-  </si>
-  <si>
-    <t>fecha y tiempo</t>
-  </si>
-  <si>
     <t>En este campo se creara un identificador para la oferta</t>
   </si>
   <si>
@@ -180,21 +117,6 @@
     <t>En este campo el usuario digitara el pago por la oferta</t>
   </si>
   <si>
-    <t>En este campo el usuario podra digitar una pequeña descripcion sobre su oferta</t>
-  </si>
-  <si>
-    <t>Tbl_estado_oferta</t>
-  </si>
-  <si>
-    <t>nom_estado</t>
-  </si>
-  <si>
-    <t>En este campo se creara un identificador para el estado de la oferta</t>
-  </si>
-  <si>
-    <t>En este campo se digitara el nombre del estado de la oferta</t>
-  </si>
-  <si>
     <t>Tbl_configuracion</t>
   </si>
   <si>
@@ -237,12 +159,6 @@
     <t xml:space="preserve">En este campo se guardara la fecha y la hora exacta </t>
   </si>
   <si>
-    <t>En este campo se creara un identidicador para un usuario que sea mipyme</t>
-  </si>
-  <si>
-    <t>idUsuario</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -258,9 +174,6 @@
     <t>birthDate</t>
   </si>
   <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -291,9 +204,6 @@
     <t>En este campo se indicara si el usuario esta activo o inactivo</t>
   </si>
   <si>
-    <t>accountSate</t>
-  </si>
-  <si>
     <t>creationDate</t>
   </si>
   <si>
@@ -336,9 +246,6 @@
     <t>charge</t>
   </si>
   <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
     <t>En este campo el desarrollador digitara el cargo que desempeño en alguna empresa</t>
   </si>
   <si>
@@ -366,37 +273,133 @@
     <t>En este campo el desarrollador digitara la descripcion de el cargo que desempeño</t>
   </si>
   <si>
-    <t>idOferta</t>
-  </si>
-  <si>
-    <t>offerTitle</t>
-  </si>
-  <si>
-    <t>publicationDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>offerQuotes</t>
-  </si>
-  <si>
-    <t>offerPayment</t>
-  </si>
-  <si>
-    <t>offerImg</t>
-  </si>
-  <si>
     <t>En este campo el mipyme seleccionara las fotos de la oferta</t>
   </si>
   <si>
-    <t>offerDescription</t>
-  </si>
-  <si>
     <t>offerState</t>
   </si>
   <si>
-    <t>En este campo se guardara el estado de la oferta (activo, inactivo)</t>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>accountState</t>
+  </si>
+  <si>
+    <t>Tbl_usuario_dev</t>
+  </si>
+  <si>
+    <t>nameBusiness</t>
+  </si>
+  <si>
+    <t>addressBusiness</t>
+  </si>
+  <si>
+    <t>cityBusiness</t>
+  </si>
+  <si>
+    <t>descriptionBusiness</t>
+  </si>
+  <si>
+    <t>En este campo el mypime digitara la direccion de su negocio</t>
+  </si>
+  <si>
+    <t>En este campo el mipyme digitara el nombre de la ciudad en la que se ubica su negocio</t>
+  </si>
+  <si>
+    <t>En este campo el mypime añadira una pequeña descripcion a su negocio</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el estado de la oferta (activo = 1, inactivo = 0)</t>
+  </si>
+  <si>
+    <t>offerId</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>finalizationDate</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>img2</t>
+  </si>
+  <si>
+    <t>img3</t>
+  </si>
+  <si>
+    <t>img4</t>
+  </si>
+  <si>
+    <t>En este campo el mipyme pondra una foto referente a su oferta</t>
+  </si>
+  <si>
+    <t>Tbl_tags</t>
+  </si>
+  <si>
+    <t>tagsId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>En este campo se creara un identificador para cada etiqueta</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el nombre de cada etiqueta</t>
+  </si>
+  <si>
+    <t>En este campo se guardara una imagen que identifique a cada etiqueta</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Tbl_password</t>
+  </si>
+  <si>
+    <t>idPassword</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ActualPassword</t>
+  </si>
+  <si>
+    <t>LastPassword</t>
+  </si>
+  <si>
+    <t>PasswordUpdateDate</t>
+  </si>
+  <si>
+    <t>varbinary</t>
+  </si>
+  <si>
+    <t>En este campo se hara la conexión con la tabla usuarios</t>
+  </si>
+  <si>
+    <t>En este capo se guardara la contraseña actual del usuario</t>
+  </si>
+  <si>
+    <t>En ese campo se guardara la contraseña antigua del usuario</t>
+  </si>
+  <si>
+    <t>En este campo habra un registro de la fecha en que se actualizo la contraseña</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -810,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,11 +826,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -843,198 +845,197 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>72</v>
+      <c r="A4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,133 +1046,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1186,413 +1187,457 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="C78" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Diccionario de datos.xlsx
+++ b/Documentation/Diccionario de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZSENA\Downloads\Emprendev-SB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B6912-2F65-4ABD-8B6F-D1F0C1EA6135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0524A-9103-47F4-BEA2-DCBD0B0741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="125">
-  <si>
-    <t>Tbl_usuario</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>Nombre</t>
   </si>
@@ -87,18 +84,12 @@
     <t>En este campo se creara una identificacion para la contraseña</t>
   </si>
   <si>
-    <t>Tbl_usuario_mypime</t>
-  </si>
-  <si>
     <t>En este campo estara la conexión con el identificador de la tabla  usuario</t>
   </si>
   <si>
     <t>En este campo el mypime digitara el nombre de su negocio</t>
   </si>
   <si>
-    <t>Tbl_oferta</t>
-  </si>
-  <si>
     <t>En este campo se creara un identificador para la oferta</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>accountState</t>
   </si>
   <si>
-    <t>Tbl_usuario_dev</t>
-  </si>
-  <si>
     <t>nameBusiness</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>En este campo el mipyme pondra una foto referente a su oferta</t>
   </si>
   <si>
-    <t>Tbl_tags</t>
-  </si>
-  <si>
     <t>tagsId</t>
   </si>
   <si>
@@ -378,15 +363,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>ActualPassword</t>
-  </si>
-  <si>
-    <t>LastPassword</t>
-  </si>
-  <si>
-    <t>PasswordUpdateDate</t>
-  </si>
-  <si>
     <t>varbinary</t>
   </si>
   <si>
@@ -400,6 +376,48 @@
   </si>
   <si>
     <t>En este campo habra un registro de la fecha en que se actualizo la contraseña</t>
+  </si>
+  <si>
+    <t>actualPassword</t>
+  </si>
+  <si>
+    <t>lastPassword</t>
+  </si>
+  <si>
+    <t>passwordUpdateDate</t>
+  </si>
+  <si>
+    <t>Tbl_etiquetas</t>
+  </si>
+  <si>
+    <t>Tbl_dev</t>
+  </si>
+  <si>
+    <t>Tbl_mypime</t>
+  </si>
+  <si>
+    <t>Tbl_user</t>
+  </si>
+  <si>
+    <t>Tbl_offer</t>
+  </si>
+  <si>
+    <t>Tbl_token</t>
+  </si>
+  <si>
+    <t>idToken</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Aquí se guardara el identificador de cada token</t>
+  </si>
+  <si>
+    <t>En este campo se guardara el token generado para restablecer contraseña</t>
+  </si>
+  <si>
+    <t>En este campo se guardara la fecha y la hora en la que se genero el token</t>
   </si>
 </sst>
 </file>
@@ -812,834 +830,846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="76.5703125" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A81:C81"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Diccionario de datos.xlsx
+++ b/Documentation/Diccionario de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZSENA\Downloads\Emprendev-SB\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Downloads\Emprendev-SB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0524A-9103-47F4-BEA2-DCBD0B0741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DC725-DD24-4DF4-BF32-D49D44491C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
   <si>
     <t>Nombre</t>
   </si>
@@ -333,24 +333,6 @@
     <t>En este campo el mipyme pondra una foto referente a su oferta</t>
   </si>
   <si>
-    <t>tagsId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>En este campo se creara un identificador para cada etiqueta</t>
-  </si>
-  <si>
-    <t>En este campo se guardara el nombre de cada etiqueta</t>
-  </si>
-  <si>
-    <t>En este campo se guardara una imagen que identifique a cada etiqueta</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -385,9 +367,6 @@
   </si>
   <si>
     <t>passwordUpdateDate</t>
-  </si>
-  <si>
-    <t>Tbl_etiquetas</t>
   </si>
   <si>
     <t>Tbl_dev</t>
@@ -833,7 +812,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
-      <selection sqref="A1:G57"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,12 +827,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -880,7 +859,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -889,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -909,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,6 +927,15 @@
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -970,11 +958,6 @@
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -986,15 +969,11 @@
       <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1006,14 +985,14 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>32</v>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,13 +1006,13 @@
         <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,13 +1026,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1145,13 +1124,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,34 +1138,43 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="E19" s="4" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1198,10 +1186,19 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -1209,11 +1206,6 @@
       <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1225,15 +1217,11 @@
       <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1245,14 +1233,14 @@
       <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>18</v>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,13 +1254,13 @@
         <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,13 +1274,13 @@
         <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,13 +1294,13 @@
         <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,13 +1314,13 @@
         <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1356,11 +1344,7 @@
       <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1372,17 +1356,8 @@
       <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -1392,55 +1367,15 @@
       <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="E36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,9 +1386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
@@ -1461,9 +1396,8 @@
       <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -1485,7 +1419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -1496,7 +1430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>86</v>
       </c>
@@ -1507,14 +1441,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
@@ -1536,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -1547,7 +1481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -1658,18 +1592,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>